--- a/biology/Biologie cellulaire et moléculaire/Désoxyribonucléase/Désoxyribonucléase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Désoxyribonucléase/Désoxyribonucléase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9soxyribonucl%C3%A9ase</t>
+          <t>Désoxyribonucléase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La désoxyribonucléase (ou ADNase ou DNAse) est une enzyme clivant les acides désoxyribonucléiques en nucléotides ou polynucléotides. Elle hydrolyse les liaisons phosphodiester.
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9soxyribonucl%C3%A9ase</t>
+          <t>Désoxyribonucléase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,14 +534,50 @@
           <t>Bactériologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses bactéries possèdent une ou plusieurs enzymes capables d'hydrolyser l'ADN. La mise en évidence de l'enzyme se fait sur les géloses à l'ADN.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>De nombreuses bactéries possèdent une ou plusieurs enzymes capables d'hydrolyser l'ADN. La mise en évidence de l'enzyme se fait sur les géloses à l'ADN.
 Par exemple :
 Chez les Staphylococcus, la mise en évidence d'une thermonucléase suffit à l'identification de l'espèce Staphylococcus aureus. De plus chez cette espèce, La DNAse sécrétée est capable d'hydrolyser des acides ribonuléiques (elle possède une activité RNAse).
-Chez les Enterobacteriaceae TDA négatives, seules les souches appartenant au genre Serratia sécrètent une DNAse.
-Applications pratiques
-En bactériologie, la recherche de la DNAse est un critère important dans l'identification de nombreux genres et espèces : Streptococcus ß-hémolytiques, Moraxella, Pseudomonas aeruginosa, Brevundimonas diminua, Stenotrophomonas maltophilia, Vibrio, Aeromonas, Bacillus, 
+Chez les Enterobacteriaceae TDA négatives, seules les souches appartenant au genre Serratia sécrètent une DNAse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Désoxyribonucléase</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9soxyribonucl%C3%A9ase</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bactériologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Applications pratiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En bactériologie, la recherche de la DNAse est un critère important dans l'identification de nombreux genres et espèces : Streptococcus ß-hémolytiques, Moraxella, Pseudomonas aeruginosa, Brevundimonas diminua, Stenotrophomonas maltophilia, Vibrio, Aeromonas, Bacillus, 
 Micrococcus etc.
 </t>
         </is>
